--- a/output_round_robin.xlsx
+++ b/output_round_robin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gi.gaglione\Documents\GitHub\task-chains-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A78E2-1FFF-4127-8D26-F766BEB44B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F5EBE-BD68-4216-BA31-98AB4DB8996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,16 +153,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,16 +233,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC49B789-E8E9-4315-9247-0E1447E09F81}" name="riassunto" displayName="riassunto" ref="A1:G21" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC49B789-E8E9-4315-9247-0E1447E09F81}" name="riassunto" displayName="riassunto" ref="A1:G21" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:G21" xr:uid="{CC49B789-E8E9-4315-9247-0E1447E09F81}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{62A84755-515A-4912-9895-50E39DBBCB50}" uniqueName="1" name="istanza" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{65E9D526-824B-4CC6-9385-9FFFC0422BDF}" uniqueName="2" name="agente_peggiore_greedy" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{1C4D4209-B7AC-443F-B352-CAD908D517D7}" uniqueName="3" name="costo_greedy" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{215C38FF-79BA-4967-BD9C-E0BF0DB29CB5}" uniqueName="4" name="agente_peggiore_locale" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{0F201B43-7D44-4244-8D61-C76675741685}" uniqueName="5" name="costo_locale" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{8271A845-C7C7-4084-8488-46A423637FAC}" uniqueName="6" name="stesso_agente" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{CEBF96C6-AE1B-432A-B326-643A0A3DD767}" uniqueName="7" name="guadagno" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{62A84755-515A-4912-9895-50E39DBBCB50}" uniqueName="1" name="istanza" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{65E9D526-824B-4CC6-9385-9FFFC0422BDF}" uniqueName="2" name="agente_peggiore_greedy" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1C4D4209-B7AC-443F-B352-CAD908D517D7}" uniqueName="3" name="costo_greedy" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{215C38FF-79BA-4967-BD9C-E0BF0DB29CB5}" uniqueName="4" name="agente_peggiore_locale" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0F201B43-7D44-4244-8D61-C76675741685}" uniqueName="5" name="costo_locale" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{8271A845-C7C7-4084-8488-46A423637FAC}" uniqueName="6" name="stesso_agente" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CEBF96C6-AE1B-432A-B326-643A0A3DD767}" uniqueName="7" name="guadagno" queryTableFieldId="7" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,506 +513,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F8FA5F-B750-4A30-9DF6-FDF2A6144674}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>975</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="D2" s="1">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>975</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="3">
+        <v>9.75</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>983</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>9.83</v>
+      </c>
+      <c r="D3" s="1">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>983</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="3">
+        <v>9.83</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>91</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>91</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>91</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>91</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>773</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="3">
+        <v>7.73</v>
+      </c>
+      <c r="D6" s="1">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>773</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="3">
+        <v>7.73</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1037</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>1037</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="E7" s="3">
+        <v>10.37</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>116</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>116</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="E8" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>106</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="D9" s="1">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>106</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="E9" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>101</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="D10" s="1">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>101</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="E10" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>1093</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="3">
+        <v>10.93</v>
+      </c>
+      <c r="D11" s="1">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>1093</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="E11" s="3">
+        <v>10.93</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12">
-        <v>2757</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>27.57</v>
+      </c>
+      <c r="D12" s="1">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>2757</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="3">
+        <v>27.57</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>49</v>
       </c>
-      <c r="C13">
-        <v>2562</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="3">
+        <v>25.62</v>
+      </c>
+      <c r="D13" s="1">
         <v>49</v>
       </c>
-      <c r="E13">
-        <v>2562</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="3">
+        <v>25.62</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>33</v>
       </c>
-      <c r="C14">
-        <v>261</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="D14" s="1">
         <v>33</v>
       </c>
-      <c r="E14">
-        <v>261</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>46</v>
       </c>
-      <c r="C15">
-        <v>2683</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="3">
+        <v>26.83</v>
+      </c>
+      <c r="D15" s="1">
         <v>46</v>
       </c>
-      <c r="E15">
-        <v>2683</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="3">
+        <v>26.83</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>47</v>
       </c>
-      <c r="C16">
-        <v>2814</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>28.14</v>
+      </c>
+      <c r="D16" s="1">
         <v>47</v>
       </c>
-      <c r="E16">
-        <v>2814</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="3">
+        <v>28.14</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>27</v>
       </c>
-      <c r="C17">
-        <v>305</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D17" s="1">
         <v>27</v>
       </c>
-      <c r="E17">
-        <v>305</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>46</v>
       </c>
-      <c r="C18">
-        <v>3097</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="3">
+        <v>30.97</v>
+      </c>
+      <c r="D18" s="1">
         <v>46</v>
       </c>
-      <c r="E18">
-        <v>3097</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="3">
+        <v>30.97</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>48</v>
       </c>
-      <c r="C19">
-        <v>298</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="D19" s="1">
         <v>48</v>
       </c>
-      <c r="E19">
-        <v>298</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="3">
+        <v>29.8</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>36</v>
       </c>
-      <c r="C20">
-        <v>2807</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="3">
+        <v>28.07</v>
+      </c>
+      <c r="D20" s="1">
         <v>36</v>
       </c>
-      <c r="E20">
-        <v>2807</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="3">
+        <v>28.07</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>39</v>
       </c>
-      <c r="C21">
-        <v>250</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="3">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1">
         <v>39</v>
       </c>
-      <c r="E21">
-        <v>250</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="3">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
